--- a/task4/Hazop.xlsx
+++ b/task4/Hazop.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win8\Documents\Github\LFSAB1503\task4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
   <si>
     <t>Noeud 1: Conduit d'alimentation entre le synthesis gas compressor (103-MJ) et le feed/effluent exchanger (121-MC)</t>
   </si>
@@ -187,6 +192,51 @@
   </si>
   <si>
     <t>Maintenace régulière du systme de refroidissement</t>
+  </si>
+  <si>
+    <t>Noeud 3:  Ammonia converter effluent/steam generator (123-MC1) and Ammonia converter effluent/BFW Preheater (123-MC2)</t>
+  </si>
+  <si>
+    <t>Mot-guide</t>
+  </si>
+  <si>
+    <t>Température très élevée</t>
+  </si>
+  <si>
+    <t>Alarme/Thermostat</t>
+  </si>
+  <si>
+    <t>Récupération de la chaleur dégagée par le réacteur (105-MD)</t>
+  </si>
+  <si>
+    <t>Augmentation de la température</t>
+  </si>
+  <si>
+    <t>Surpression dans le tuyau, surchauffe / tuyau qui cède, feu</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>Augmentation de  la pression et température</t>
+  </si>
+  <si>
+    <t>incendie</t>
+  </si>
+  <si>
+    <t>Risque d'explosion à cause du H2 et de la surpression</t>
+  </si>
+  <si>
+    <t>Extrêmementrare</t>
+  </si>
+  <si>
+    <t>Quantité de chaleur récupérée trop intense / Tuyau qui cède, feu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Probablement</t>
+  </si>
+  <si>
+    <t>Alarme/Thermostat, contrôle de la température de sortie du réacteur</t>
   </si>
 </sst>
 </file>
@@ -267,19 +317,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,10 +336,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -311,6 +367,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,123 +700,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N23"/>
+  <dimension ref="A4:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="55.125" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="61.625" customWidth="1"/>
+    <col min="6" max="6" width="46.125" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.875" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
     <col min="10" max="10" width="43.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
     <col min="14" max="14" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="I7" s="5" t="s">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:14" s="2" customFormat="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -779,14 +843,14 @@
       <c r="M10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
@@ -815,253 +879,563 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="6" customFormat="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="7" customFormat="1">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="5" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="5" customFormat="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="5" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" s="5" customFormat="1">
-      <c r="A21" s="3" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="5" customFormat="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5" t="s">
+    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5" t="s">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="5" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K37" s="11"/>
+      <c r="L37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="58">
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="N19:N20"/>
@@ -1078,32 +1452,9 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="G21:G23"/>
     <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
